--- a/docs/CRONOGRAMA - Projeto Coruja.xlsx
+++ b/docs/CRONOGRAMA - Projeto Coruja.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c63bf66efdccd7bc/Office/Estudos/Projeto Integrado/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\pedro\PI-Coruja\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{2AE9B38D-FB03-455E-AA63-4593DC3368DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{184820D3-63FE-419F-A10F-B61A42E1BBF2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2F3C05-2E59-44D4-89DB-B2B79AB23F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{38DF4ABA-2CF8-4332-857F-C4776E2C53CC}"/>
+    <workbookView xWindow="-192" yWindow="-192" windowWidth="23424" windowHeight="14064" xr2:uid="{38DF4ABA-2CF8-4332-857F-C4776E2C53CC}"/>
   </bookViews>
   <sheets>
     <sheet name="CRONOGRAMA Modelo" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'CRONOGRAMA Modelo'!$B$1:$S$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'CRONOGRAMA Modelo'!$B$1:$S$24</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
   <si>
     <t>Cronograma de execução do projeto:</t>
   </si>
@@ -117,6 +117,21 @@
   </si>
   <si>
     <t>Pedro</t>
+  </si>
+  <si>
+    <t>Treinamento da rede</t>
+  </si>
+  <si>
+    <t>Desenvolvimento do framework de treinamento e avaliação</t>
+  </si>
+  <si>
+    <t>Simulação em dados reais</t>
+  </si>
+  <si>
+    <t>Comparação com métodos já existentes</t>
+  </si>
+  <si>
+    <t>Apresentação Final</t>
   </si>
 </sst>
 </file>
@@ -127,7 +142,7 @@
     <numFmt numFmtId="164" formatCode="[$-416]d\-mmm;@"/>
     <numFmt numFmtId="165" formatCode="yyyy"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +224,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -242,7 +264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -391,15 +413,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -407,7 +420,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -519,50 +532,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
@@ -583,6 +552,38 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -905,59 +906,59 @@
   </sheetPr>
   <dimension ref="B2:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="35.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
-    <col min="5" max="19" width="10.7109375" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.15625" style="2"/>
+    <col min="2" max="2" width="35.68359375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.15625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.41796875" style="1" customWidth="1"/>
+    <col min="5" max="19" width="10.68359375" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9.15625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:19" s="5" customFormat="1" ht="25.8" x14ac:dyDescent="0.95">
       <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="2:19" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:19" s="5" customFormat="1" ht="25.8" x14ac:dyDescent="0.95">
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="2:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" ht="17.7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+    </row>
+    <row r="6" spans="2:19" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
@@ -989,11 +990,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="42" t="s">
+    <row r="8" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="65" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="29" t="s">
@@ -1017,9 +1018,9 @@
       <c r="R8" s="32"/>
       <c r="S8" s="33"/>
     </row>
-    <row r="9" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
+    <row r="9" spans="2:19" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="30" t="s">
         <v>11</v>
       </c>
@@ -1069,10 +1070,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
+    <row r="10" spans="2:19" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="67"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="69"/>
       <c r="E10" s="22">
         <v>45875</v>
       </c>
@@ -1132,494 +1133,564 @@
         <v>45980</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="48" t="s">
+    <row r="11" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="60" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="61"/>
-    </row>
-    <row r="12" spans="2:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="49"/>
-      <c r="C12" s="47"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="45"/>
+    </row>
+    <row r="12" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="63"/>
+      <c r="C12" s="61"/>
       <c r="D12" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="61"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="48" t="s">
+      <c r="E12" s="41"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="45"/>
+    </row>
+    <row r="13" spans="2:19" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="60" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="61"/>
-    </row>
-    <row r="14" spans="2:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="49"/>
-      <c r="C14" s="47"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="45"/>
+    </row>
+    <row r="14" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="63"/>
+      <c r="C14" s="61"/>
       <c r="D14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="61"/>
-    </row>
-    <row r="15" spans="2:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>18</v>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="45"/>
+    </row>
+    <row r="15" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>25</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="61"/>
-    </row>
-    <row r="16" spans="2:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="54"/>
-      <c r="C16" s="47"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="45"/>
+    </row>
+    <row r="16" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="61"/>
-    </row>
-    <row r="17" spans="2:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="48" t="s">
+      <c r="E16" s="70"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="45"/>
+    </row>
+    <row r="17" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="60" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="61"/>
-    </row>
-    <row r="18" spans="2:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="45"/>
+    </row>
+    <row r="18" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="60"/>
-      <c r="S18" s="61"/>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>24</v>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="45"/>
+    </row>
+    <row r="19" spans="2:19" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>18</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="61"/>
-    </row>
-    <row r="20" spans="2:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="45"/>
+    </row>
+    <row r="20" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="63"/>
-      <c r="R20" s="60"/>
-      <c r="S20" s="61"/>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>18</v>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="45"/>
+    </row>
+    <row r="21" spans="2:19" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>24</v>
       </c>
       <c r="D21" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="61"/>
-    </row>
-    <row r="22" spans="2:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="49"/>
-      <c r="C22" s="45"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="45"/>
+    </row>
+    <row r="22" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="60"/>
-      <c r="S22" s="61"/>
-    </row>
-    <row r="23" spans="2:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-    </row>
-    <row r="24" spans="2:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="55"/>
-    </row>
-    <row r="25" spans="2:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="55"/>
-    </row>
-    <row r="26" spans="2:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55"/>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="55"/>
-      <c r="S27" s="55"/>
-    </row>
-    <row r="28" spans="2:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="45"/>
+    </row>
+    <row r="23" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="45"/>
+    </row>
+    <row r="24" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="45"/>
+    </row>
+    <row r="25" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="45"/>
+    </row>
+    <row r="26" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="45"/>
+    </row>
+    <row r="27" spans="2:19" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="45"/>
+    </row>
+    <row r="28" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="54"/>
       <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="55"/>
-    </row>
-    <row r="30" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="55"/>
-      <c r="S30" s="55"/>
-    </row>
-    <row r="31" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="55"/>
-      <c r="S31" s="55"/>
-    </row>
-    <row r="34" x14ac:dyDescent="0.25"/>
-    <row r="35" x14ac:dyDescent="0.25"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="45"/>
+    </row>
+    <row r="29" spans="2:19" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="45"/>
+    </row>
+    <row r="30" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="45"/>
+    </row>
+    <row r="31" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="45"/>
+    </row>
+    <row r="32" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="63"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="45"/>
+    </row>
+    <row r="34" ht="14.4" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="35" ht="14.4" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C19:C20"/>
+  <mergeCells count="26">
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="D5:M5"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C27:C28"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>

--- a/docs/CRONOGRAMA - Projeto Coruja.xlsx
+++ b/docs/CRONOGRAMA - Projeto Coruja.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\pedro\PI-Coruja\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2F3C05-2E59-44D4-89DB-B2B79AB23F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A0B377-3406-4BAD-8EE3-51C9BFC08274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-192" yWindow="-192" windowWidth="23424" windowHeight="14064" xr2:uid="{38DF4ABA-2CF8-4332-857F-C4776E2C53CC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{38DF4ABA-2CF8-4332-857F-C4776E2C53CC}"/>
   </bookViews>
   <sheets>
     <sheet name="CRONOGRAMA Modelo" sheetId="3" r:id="rId1"/>
@@ -420,7 +420,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -553,18 +553,19 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -583,7 +584,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -907,58 +908,58 @@
   <dimension ref="B2:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B8" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="2"/>
-    <col min="2" max="2" width="35.68359375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.15625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.41796875" style="1" customWidth="1"/>
-    <col min="5" max="19" width="10.68359375" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9.15625" style="2"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="35.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="1" customWidth="1"/>
+    <col min="5" max="19" width="10.6640625" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" s="5" customFormat="1" ht="25.8" x14ac:dyDescent="0.95">
+    <row r="2" spans="2:19" s="5" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="2:19" s="5" customFormat="1" ht="25.8" x14ac:dyDescent="0.95">
+    <row r="3" spans="2:19" s="5" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:19" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="2:19" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-    </row>
-    <row r="6" spans="2:19" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+    </row>
+    <row r="6" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="2:19" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:19" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
@@ -990,11 +991,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="65" t="s">
+    <row r="8" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="66" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="29" t="s">
@@ -1018,9 +1019,9 @@
       <c r="R8" s="32"/>
       <c r="S8" s="33"/>
     </row>
-    <row r="9" spans="2:19" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
+    <row r="9" spans="2:19" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="30" t="s">
         <v>11</v>
       </c>
@@ -1070,10 +1071,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:19" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="67"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="69"/>
+    <row r="10" spans="2:19" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B10" s="68"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="70"/>
       <c r="E10" s="22">
         <v>45875</v>
       </c>
@@ -1133,11 +1134,11 @@
         <v>45980</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="62" t="s">
+    <row r="11" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="63" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="27" t="s">
@@ -1159,9 +1160,9 @@
       <c r="R11" s="44"/>
       <c r="S11" s="45"/>
     </row>
-    <row r="12" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="63"/>
-      <c r="C12" s="61"/>
+    <row r="12" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="62"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="28" t="s">
         <v>14</v>
       </c>
@@ -1181,11 +1182,11 @@
       <c r="R12" s="44"/>
       <c r="S12" s="45"/>
     </row>
-    <row r="13" spans="2:19" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="62" t="s">
+    <row r="13" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B13" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="63" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="27" t="s">
@@ -1207,9 +1208,9 @@
       <c r="R13" s="44"/>
       <c r="S13" s="45"/>
     </row>
-    <row r="14" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="63"/>
-      <c r="C14" s="61"/>
+    <row r="14" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="62"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="28" t="s">
         <v>14</v>
       </c>
@@ -1229,11 +1230,11 @@
       <c r="R14" s="44"/>
       <c r="S14" s="45"/>
     </row>
-    <row r="15" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="60" t="s">
+    <row r="15" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="63" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="27" t="s">
@@ -1255,18 +1256,18 @@
       <c r="R15" s="44"/>
       <c r="S15" s="45"/>
     </row>
-    <row r="16" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
+    <row r="16" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="70"/>
+      <c r="E16" s="60"/>
       <c r="F16" s="41"/>
       <c r="G16" s="41"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="43"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="71"/>
       <c r="K16" s="43"/>
       <c r="L16" s="44"/>
       <c r="M16" s="45"/>
@@ -1277,11 +1278,11 @@
       <c r="R16" s="44"/>
       <c r="S16" s="45"/>
     </row>
-    <row r="17" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="60" t="s">
+    <row r="17" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="63" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="27" t="s">
@@ -1303,9 +1304,9 @@
       <c r="R17" s="44"/>
       <c r="S17" s="45"/>
     </row>
-    <row r="18" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
+    <row r="18" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="28" t="s">
         <v>14</v>
       </c>
@@ -1313,7 +1314,7 @@
       <c r="F18" s="41"/>
       <c r="G18" s="41"/>
       <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
+      <c r="I18" s="48"/>
       <c r="J18" s="43"/>
       <c r="K18" s="43"/>
       <c r="L18" s="44"/>
@@ -1325,11 +1326,11 @@
       <c r="R18" s="44"/>
       <c r="S18" s="45"/>
     </row>
-    <row r="19" spans="2:19" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="60" t="s">
+    <row r="19" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B19" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="63" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="27" t="s">
@@ -1351,9 +1352,9 @@
       <c r="R19" s="44"/>
       <c r="S19" s="45"/>
     </row>
-    <row r="20" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
+    <row r="20" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="28" t="s">
         <v>14</v>
       </c>
@@ -1362,7 +1363,7 @@
       <c r="G20" s="41"/>
       <c r="H20" s="51"/>
       <c r="I20" s="51"/>
-      <c r="J20" s="43"/>
+      <c r="J20" s="71"/>
       <c r="K20" s="43"/>
       <c r="L20" s="53"/>
       <c r="M20" s="45"/>
@@ -1373,11 +1374,11 @@
       <c r="R20" s="44"/>
       <c r="S20" s="45"/>
     </row>
-    <row r="21" spans="2:19" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="60" t="s">
+    <row r="21" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B21" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="63" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="27" t="s">
@@ -1399,9 +1400,9 @@
       <c r="R21" s="44"/>
       <c r="S21" s="45"/>
     </row>
-    <row r="22" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
+    <row r="22" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="28" t="s">
         <v>14</v>
       </c>
@@ -1421,11 +1422,11 @@
       <c r="R22" s="44"/>
       <c r="S22" s="45"/>
     </row>
-    <row r="23" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="60" t="s">
+    <row r="23" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="63" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="27" t="s">
@@ -1447,9 +1448,9 @@
       <c r="R23" s="44"/>
       <c r="S23" s="45"/>
     </row>
-    <row r="24" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
+    <row r="24" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="28" t="s">
         <v>14</v>
       </c>
@@ -1469,11 +1470,11 @@
       <c r="R24" s="44"/>
       <c r="S24" s="45"/>
     </row>
-    <row r="25" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="62" t="s">
+    <row r="25" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="61" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="27" t="s">
@@ -1495,9 +1496,9 @@
       <c r="R25" s="44"/>
       <c r="S25" s="45"/>
     </row>
-    <row r="26" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
+    <row r="26" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="28" t="s">
         <v>14</v>
       </c>
@@ -1517,11 +1518,11 @@
       <c r="R26" s="44"/>
       <c r="S26" s="45"/>
     </row>
-    <row r="27" spans="2:19" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="62" t="s">
+    <row r="27" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B27" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="61" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="27" t="s">
@@ -1543,9 +1544,9 @@
       <c r="R27" s="44"/>
       <c r="S27" s="45"/>
     </row>
-    <row r="28" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
+    <row r="28" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="28" t="s">
         <v>14</v>
       </c>
@@ -1565,11 +1566,11 @@
       <c r="R28" s="44"/>
       <c r="S28" s="45"/>
     </row>
-    <row r="29" spans="2:19" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="62" t="s">
+    <row r="29" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B29" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="61" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="27" t="s">
@@ -1591,9 +1592,9 @@
       <c r="R29" s="53"/>
       <c r="S29" s="45"/>
     </row>
-    <row r="30" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
+    <row r="30" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="28" t="s">
         <v>14</v>
       </c>
@@ -1613,11 +1614,11 @@
       <c r="R30" s="44"/>
       <c r="S30" s="45"/>
     </row>
-    <row r="31" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="62" t="s">
+    <row r="31" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="60" t="s">
+      <c r="C31" s="63" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="27" t="s">
@@ -1639,9 +1640,9 @@
       <c r="R31" s="42"/>
       <c r="S31" s="45"/>
     </row>
-    <row r="32" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="63"/>
-      <c r="C32" s="61"/>
+    <row r="32" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="62"/>
+      <c r="C32" s="64"/>
       <c r="D32" s="28" t="s">
         <v>14</v>
       </c>
@@ -1661,10 +1662,21 @@
       <c r="R32" s="51"/>
       <c r="S32" s="45"/>
     </row>
-    <row r="34" ht="14.4" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="35" ht="14.4" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="34" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D5:M5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="B27:B28"/>
@@ -1677,20 +1689,9 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D5:M5"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C27:C28"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>

--- a/docs/CRONOGRAMA - Projeto Coruja.xlsx
+++ b/docs/CRONOGRAMA - Projeto Coruja.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\pedro\PI-Coruja\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A0B377-3406-4BAD-8EE3-51C9BFC08274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{38DF4ABA-2CF8-4332-857F-C4776E2C53CC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="CRONOGRAMA Modelo" sheetId="3" r:id="rId1"/>
@@ -19,8 +13,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'CRONOGRAMA Modelo'!$B$1:$S$24</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -137,12 +131,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-416]d\-mmm;@"/>
     <numFmt numFmtId="165" formatCode="yyyy"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,7 +226,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,6 +257,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -420,7 +420,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -554,6 +554,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -584,13 +585,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{89CF5DCD-E9FB-4378-ACB6-672712228C85}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{F5B937D8-34A8-445D-BBAA-2E244F4CBCFE}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{20531837-DFC8-45B7-ADBC-A3371D1C5A91}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -648,7 +650,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -700,7 +702,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -894,24 +896,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4978C03-4176-40F9-BC32-4E3A1D6F5A49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.109375" style="2"/>
     <col min="2" max="2" width="35.6640625" style="2" customWidth="1"/>
@@ -921,45 +923,45 @@
     <col min="20" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" s="5" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:19" s="5" customFormat="1" ht="25.8">
       <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="2:19" s="5" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:19" s="5" customFormat="1" ht="25.8">
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:19" ht="14.4">
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="2:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:19" ht="17.399999999999999">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-    </row>
-    <row r="6" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+    </row>
+    <row r="6" spans="2:19" ht="14.4">
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="2:19" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19" s="1" customFormat="1" ht="14.4">
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
@@ -991,11 +993,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="66" t="s">
+    <row r="8" spans="2:19" ht="14.55" customHeight="1">
+      <c r="B8" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="67" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="29" t="s">
@@ -1019,9 +1021,9 @@
       <c r="R8" s="32"/>
       <c r="S8" s="33"/>
     </row>
-    <row r="9" spans="2:19" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
+    <row r="9" spans="2:19" s="1" customFormat="1" ht="14.4">
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="30" t="s">
         <v>11</v>
       </c>
@@ -1071,10 +1073,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:19" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="68"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="70"/>
+    <row r="10" spans="2:19" s="1" customFormat="1" ht="14.4">
+      <c r="B10" s="69"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="71"/>
       <c r="E10" s="22">
         <v>45875</v>
       </c>
@@ -1134,11 +1136,11 @@
         <v>45980</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="61" t="s">
+    <row r="11" spans="2:19" ht="14.55" customHeight="1">
+      <c r="B11" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="64" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="27" t="s">
@@ -1160,9 +1162,9 @@
       <c r="R11" s="44"/>
       <c r="S11" s="45"/>
     </row>
-    <row r="12" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="62"/>
-      <c r="C12" s="64"/>
+    <row r="12" spans="2:19" ht="14.55" customHeight="1">
+      <c r="B12" s="63"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="28" t="s">
         <v>14</v>
       </c>
@@ -1182,11 +1184,11 @@
       <c r="R12" s="44"/>
       <c r="S12" s="45"/>
     </row>
-    <row r="13" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B13" s="61" t="s">
+    <row r="13" spans="2:19" ht="14.4">
+      <c r="B13" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="64" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="27" t="s">
@@ -1208,9 +1210,9 @@
       <c r="R13" s="44"/>
       <c r="S13" s="45"/>
     </row>
-    <row r="14" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="62"/>
-      <c r="C14" s="64"/>
+    <row r="14" spans="2:19" ht="14.55" customHeight="1">
+      <c r="B14" s="63"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="28" t="s">
         <v>14</v>
       </c>
@@ -1230,11 +1232,11 @@
       <c r="R14" s="44"/>
       <c r="S14" s="45"/>
     </row>
-    <row r="15" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="63" t="s">
+    <row r="15" spans="2:19" ht="14.55" customHeight="1">
+      <c r="B15" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="64" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="27" t="s">
@@ -1256,9 +1258,9 @@
       <c r="R15" s="44"/>
       <c r="S15" s="45"/>
     </row>
-    <row r="16" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
+    <row r="16" spans="2:19" ht="14.55" customHeight="1">
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="28" t="s">
         <v>14</v>
       </c>
@@ -1267,7 +1269,7 @@
       <c r="G16" s="41"/>
       <c r="H16" s="48"/>
       <c r="I16" s="48"/>
-      <c r="J16" s="71"/>
+      <c r="J16" s="61"/>
       <c r="K16" s="43"/>
       <c r="L16" s="44"/>
       <c r="M16" s="45"/>
@@ -1278,11 +1280,11 @@
       <c r="R16" s="44"/>
       <c r="S16" s="45"/>
     </row>
-    <row r="17" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="63" t="s">
+    <row r="17" spans="2:19" ht="14.55" customHeight="1">
+      <c r="B17" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="64" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="27" t="s">
@@ -1304,9 +1306,9 @@
       <c r="R17" s="44"/>
       <c r="S17" s="45"/>
     </row>
-    <row r="18" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
+    <row r="18" spans="2:19" ht="14.55" customHeight="1">
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="28" t="s">
         <v>14</v>
       </c>
@@ -1326,11 +1328,11 @@
       <c r="R18" s="44"/>
       <c r="S18" s="45"/>
     </row>
-    <row r="19" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B19" s="63" t="s">
+    <row r="19" spans="2:19" ht="14.4">
+      <c r="B19" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="64" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="27" t="s">
@@ -1352,9 +1354,9 @@
       <c r="R19" s="44"/>
       <c r="S19" s="45"/>
     </row>
-    <row r="20" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
+    <row r="20" spans="2:19" ht="14.55" customHeight="1">
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="28" t="s">
         <v>14</v>
       </c>
@@ -1363,7 +1365,7 @@
       <c r="G20" s="41"/>
       <c r="H20" s="51"/>
       <c r="I20" s="51"/>
-      <c r="J20" s="71"/>
+      <c r="J20" s="61"/>
       <c r="K20" s="43"/>
       <c r="L20" s="53"/>
       <c r="M20" s="45"/>
@@ -1374,11 +1376,11 @@
       <c r="R20" s="44"/>
       <c r="S20" s="45"/>
     </row>
-    <row r="21" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B21" s="63" t="s">
+    <row r="21" spans="2:19" ht="14.4">
+      <c r="B21" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="64" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="27" t="s">
@@ -1400,9 +1402,9 @@
       <c r="R21" s="44"/>
       <c r="S21" s="45"/>
     </row>
-    <row r="22" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
+    <row r="22" spans="2:19" ht="14.55" customHeight="1">
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="28" t="s">
         <v>14</v>
       </c>
@@ -1422,11 +1424,11 @@
       <c r="R22" s="44"/>
       <c r="S22" s="45"/>
     </row>
-    <row r="23" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="63" t="s">
+    <row r="23" spans="2:19" ht="14.55" customHeight="1">
+      <c r="B23" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="64" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="27" t="s">
@@ -1448,9 +1450,9 @@
       <c r="R23" s="44"/>
       <c r="S23" s="45"/>
     </row>
-    <row r="24" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
+    <row r="24" spans="2:19" ht="14.55" customHeight="1">
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="28" t="s">
         <v>14</v>
       </c>
@@ -1470,11 +1472,11 @@
       <c r="R24" s="44"/>
       <c r="S24" s="45"/>
     </row>
-    <row r="25" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="61" t="s">
+    <row r="25" spans="2:19" ht="14.55" customHeight="1">
+      <c r="B25" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="62" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="27" t="s">
@@ -1496,9 +1498,9 @@
       <c r="R25" s="44"/>
       <c r="S25" s="45"/>
     </row>
-    <row r="26" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
+    <row r="26" spans="2:19" ht="14.55" customHeight="1">
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="28" t="s">
         <v>14</v>
       </c>
@@ -1518,11 +1520,11 @@
       <c r="R26" s="44"/>
       <c r="S26" s="45"/>
     </row>
-    <row r="27" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B27" s="61" t="s">
+    <row r="27" spans="2:19" ht="14.4">
+      <c r="B27" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="62" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="27" t="s">
@@ -1544,19 +1546,19 @@
       <c r="R27" s="44"/>
       <c r="S27" s="45"/>
     </row>
-    <row r="28" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
+    <row r="28" spans="2:19" ht="14.55" customHeight="1">
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="28" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="41"/>
       <c r="F28" s="41"/>
       <c r="G28" s="41"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="52"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="73"/>
       <c r="L28" s="53"/>
       <c r="M28" s="54"/>
       <c r="N28" s="55"/>
@@ -1566,11 +1568,11 @@
       <c r="R28" s="44"/>
       <c r="S28" s="45"/>
     </row>
-    <row r="29" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B29" s="61" t="s">
+    <row r="29" spans="2:19" ht="14.4">
+      <c r="B29" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="62" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="27" t="s">
@@ -1592,9 +1594,9 @@
       <c r="R29" s="53"/>
       <c r="S29" s="45"/>
     </row>
-    <row r="30" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
+    <row r="30" spans="2:19" ht="15" customHeight="1">
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
       <c r="D30" s="28" t="s">
         <v>14</v>
       </c>
@@ -1614,11 +1616,11 @@
       <c r="R30" s="44"/>
       <c r="S30" s="45"/>
     </row>
-    <row r="31" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="61" t="s">
+    <row r="31" spans="2:19" ht="15" customHeight="1">
+      <c r="B31" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="64" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="27" t="s">
@@ -1640,9 +1642,9 @@
       <c r="R31" s="42"/>
       <c r="S31" s="45"/>
     </row>
-    <row r="32" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="62"/>
-      <c r="C32" s="64"/>
+    <row r="32" spans="2:19" ht="15" customHeight="1">
+      <c r="B32" s="63"/>
+      <c r="C32" s="65"/>
       <c r="D32" s="28" t="s">
         <v>14</v>
       </c>
@@ -1662,21 +1664,10 @@
       <c r="R32" s="51"/>
       <c r="S32" s="45"/>
     </row>
-    <row r="34" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="14.4"/>
+    <row r="35" ht="14.4"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D5:M5"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B10:D10"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="B27:B28"/>
@@ -1692,6 +1683,17 @@
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D5:M5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C27:C28"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>

--- a/docs/CRONOGRAMA - Projeto Coruja.xlsx
+++ b/docs/CRONOGRAMA - Projeto Coruja.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\pedro\PI-Coruja\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6764A0B0-7765-4D1B-BB66-64B3BB0BC232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRONOGRAMA Modelo" sheetId="3" r:id="rId1"/>
@@ -13,8 +19,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'CRONOGRAMA Modelo'!$B$1:$S$24</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -131,12 +137,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-416]d\-mmm;@"/>
     <numFmt numFmtId="165" formatCode="yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +231,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -420,7 +433,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -555,6 +568,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -585,14 +600,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -896,24 +910,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.109375" style="2"/>
     <col min="2" max="2" width="35.6640625" style="2" customWidth="1"/>
@@ -923,45 +937,45 @@
     <col min="20" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" s="5" customFormat="1" ht="25.8">
+    <row r="2" spans="2:19" s="5" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="2:19" s="5" customFormat="1" ht="25.8">
+    <row r="3" spans="2:19" s="5" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:19" ht="14.4">
+    <row r="4" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="2:19" ht="17.399999999999999">
+    <row r="5" spans="2:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-    </row>
-    <row r="6" spans="2:19" ht="14.4">
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+    </row>
+    <row r="6" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="2:19" s="1" customFormat="1" ht="14.4">
+    <row r="7" spans="2:19" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
@@ -993,11 +1007,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="14.55" customHeight="1">
-      <c r="B8" s="67" t="s">
+    <row r="8" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="69" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="29" t="s">
@@ -1021,9 +1035,9 @@
       <c r="R8" s="32"/>
       <c r="S8" s="33"/>
     </row>
-    <row r="9" spans="2:19" s="1" customFormat="1" ht="14.4">
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
+    <row r="9" spans="2:19" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="30" t="s">
         <v>11</v>
       </c>
@@ -1073,10 +1087,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:19" s="1" customFormat="1" ht="14.4">
-      <c r="B10" s="69"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="71"/>
+    <row r="10" spans="2:19" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B10" s="71"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="73"/>
       <c r="E10" s="22">
         <v>45875</v>
       </c>
@@ -1136,11 +1150,11 @@
         <v>45980</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="14.55" customHeight="1">
-      <c r="B11" s="62" t="s">
+    <row r="11" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="66" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="27" t="s">
@@ -1162,9 +1176,9 @@
       <c r="R11" s="44"/>
       <c r="S11" s="45"/>
     </row>
-    <row r="12" spans="2:19" ht="14.55" customHeight="1">
-      <c r="B12" s="63"/>
-      <c r="C12" s="65"/>
+    <row r="12" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="65"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="28" t="s">
         <v>14</v>
       </c>
@@ -1184,11 +1198,11 @@
       <c r="R12" s="44"/>
       <c r="S12" s="45"/>
     </row>
-    <row r="13" spans="2:19" ht="14.4">
-      <c r="B13" s="62" t="s">
+    <row r="13" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B13" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="66" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="27" t="s">
@@ -1210,9 +1224,9 @@
       <c r="R13" s="44"/>
       <c r="S13" s="45"/>
     </row>
-    <row r="14" spans="2:19" ht="14.55" customHeight="1">
-      <c r="B14" s="63"/>
-      <c r="C14" s="65"/>
+    <row r="14" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="65"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="28" t="s">
         <v>14</v>
       </c>
@@ -1232,11 +1246,11 @@
       <c r="R14" s="44"/>
       <c r="S14" s="45"/>
     </row>
-    <row r="15" spans="2:19" ht="14.55" customHeight="1">
-      <c r="B15" s="64" t="s">
+    <row r="15" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="66" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="27" t="s">
@@ -1258,9 +1272,9 @@
       <c r="R15" s="44"/>
       <c r="S15" s="45"/>
     </row>
-    <row r="16" spans="2:19" ht="14.55" customHeight="1">
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
+    <row r="16" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="28" t="s">
         <v>14</v>
       </c>
@@ -1280,11 +1294,11 @@
       <c r="R16" s="44"/>
       <c r="S16" s="45"/>
     </row>
-    <row r="17" spans="2:19" ht="14.55" customHeight="1">
-      <c r="B17" s="64" t="s">
+    <row r="17" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="66" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="27" t="s">
@@ -1306,9 +1320,9 @@
       <c r="R17" s="44"/>
       <c r="S17" s="45"/>
     </row>
-    <row r="18" spans="2:19" ht="14.55" customHeight="1">
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
+    <row r="18" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
       <c r="D18" s="28" t="s">
         <v>14</v>
       </c>
@@ -1328,11 +1342,11 @@
       <c r="R18" s="44"/>
       <c r="S18" s="45"/>
     </row>
-    <row r="19" spans="2:19" ht="14.4">
-      <c r="B19" s="64" t="s">
+    <row r="19" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B19" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="66" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="27" t="s">
@@ -1354,9 +1368,9 @@
       <c r="R19" s="44"/>
       <c r="S19" s="45"/>
     </row>
-    <row r="20" spans="2:19" ht="14.55" customHeight="1">
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
+    <row r="20" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
       <c r="D20" s="28" t="s">
         <v>14</v>
       </c>
@@ -1376,11 +1390,11 @@
       <c r="R20" s="44"/>
       <c r="S20" s="45"/>
     </row>
-    <row r="21" spans="2:19" ht="14.4">
-      <c r="B21" s="64" t="s">
+    <row r="21" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B21" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="66" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="27" t="s">
@@ -1402,9 +1416,9 @@
       <c r="R21" s="44"/>
       <c r="S21" s="45"/>
     </row>
-    <row r="22" spans="2:19" ht="14.55" customHeight="1">
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
+    <row r="22" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
       <c r="D22" s="28" t="s">
         <v>14</v>
       </c>
@@ -1414,7 +1428,7 @@
       <c r="H22" s="51"/>
       <c r="I22" s="51"/>
       <c r="J22" s="52"/>
-      <c r="K22" s="43"/>
+      <c r="K22" s="74"/>
       <c r="L22" s="53"/>
       <c r="M22" s="45"/>
       <c r="N22" s="41"/>
@@ -1424,11 +1438,11 @@
       <c r="R22" s="44"/>
       <c r="S22" s="45"/>
     </row>
-    <row r="23" spans="2:19" ht="14.55" customHeight="1">
-      <c r="B23" s="64" t="s">
+    <row r="23" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="66" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="27" t="s">
@@ -1450,9 +1464,9 @@
       <c r="R23" s="44"/>
       <c r="S23" s="45"/>
     </row>
-    <row r="24" spans="2:19" ht="14.55" customHeight="1">
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
+    <row r="24" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="28" t="s">
         <v>14</v>
       </c>
@@ -1462,7 +1476,7 @@
       <c r="H24" s="51"/>
       <c r="I24" s="51"/>
       <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
+      <c r="K24" s="61"/>
       <c r="L24" s="44"/>
       <c r="M24" s="45"/>
       <c r="N24" s="41"/>
@@ -1472,11 +1486,11 @@
       <c r="R24" s="44"/>
       <c r="S24" s="45"/>
     </row>
-    <row r="25" spans="2:19" ht="14.55" customHeight="1">
-      <c r="B25" s="62" t="s">
+    <row r="25" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="64" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="27" t="s">
@@ -1498,9 +1512,9 @@
       <c r="R25" s="44"/>
       <c r="S25" s="45"/>
     </row>
-    <row r="26" spans="2:19" ht="14.55" customHeight="1">
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
+    <row r="26" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
       <c r="D26" s="28" t="s">
         <v>14</v>
       </c>
@@ -1520,11 +1534,11 @@
       <c r="R26" s="44"/>
       <c r="S26" s="45"/>
     </row>
-    <row r="27" spans="2:19" ht="14.4">
-      <c r="B27" s="62" t="s">
+    <row r="27" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B27" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="64" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="27" t="s">
@@ -1546,19 +1560,19 @@
       <c r="R27" s="44"/>
       <c r="S27" s="45"/>
     </row>
-    <row r="28" spans="2:19" ht="14.55" customHeight="1">
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
+    <row r="28" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
       <c r="D28" s="28" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="41"/>
       <c r="F28" s="41"/>
       <c r="G28" s="41"/>
-      <c r="H28" s="72"/>
+      <c r="H28" s="62"/>
       <c r="I28" s="48"/>
       <c r="J28" s="48"/>
-      <c r="K28" s="73"/>
+      <c r="K28" s="63"/>
       <c r="L28" s="53"/>
       <c r="M28" s="54"/>
       <c r="N28" s="55"/>
@@ -1568,11 +1582,11 @@
       <c r="R28" s="44"/>
       <c r="S28" s="45"/>
     </row>
-    <row r="29" spans="2:19" ht="14.4">
-      <c r="B29" s="62" t="s">
+    <row r="29" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B29" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="64" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="27" t="s">
@@ -1594,9 +1608,9 @@
       <c r="R29" s="53"/>
       <c r="S29" s="45"/>
     </row>
-    <row r="30" spans="2:19" ht="15" customHeight="1">
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
+    <row r="30" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
       <c r="D30" s="28" t="s">
         <v>14</v>
       </c>
@@ -1616,11 +1630,11 @@
       <c r="R30" s="44"/>
       <c r="S30" s="45"/>
     </row>
-    <row r="31" spans="2:19" ht="15" customHeight="1">
-      <c r="B31" s="62" t="s">
+    <row r="31" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="64" t="s">
+      <c r="C31" s="66" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="27" t="s">
@@ -1642,9 +1656,9 @@
       <c r="R31" s="42"/>
       <c r="S31" s="45"/>
     </row>
-    <row r="32" spans="2:19" ht="15" customHeight="1">
-      <c r="B32" s="63"/>
-      <c r="C32" s="65"/>
+    <row r="32" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="65"/>
+      <c r="C32" s="67"/>
       <c r="D32" s="28" t="s">
         <v>14</v>
       </c>
@@ -1664,10 +1678,21 @@
       <c r="R32" s="51"/>
       <c r="S32" s="45"/>
     </row>
-    <row r="34" ht="14.4"/>
-    <row r="35" ht="14.4"/>
+    <row r="34" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D5:M5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="B27:B28"/>
@@ -1683,17 +1708,6 @@
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D5:M5"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C27:C28"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>

--- a/docs/CRONOGRAMA - Projeto Coruja.xlsx
+++ b/docs/CRONOGRAMA - Projeto Coruja.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\pedro\PI-Coruja\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\pedro\PI-Coruja\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6764A0B0-7765-4D1B-BB66-64B3BB0BC232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A11B56A-C4EA-44F5-9188-939AA6FDF73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRONOGRAMA Modelo" sheetId="3" r:id="rId1"/>
@@ -142,7 +142,7 @@
     <numFmt numFmtId="164" formatCode="[$-416]d\-mmm;@"/>
     <numFmt numFmtId="165" formatCode="yyyy"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,13 +218,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -239,7 +232,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,12 +263,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -433,7 +420,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -559,17 +546,14 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -600,7 +584,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,7 +648,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -716,7 +700,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -924,58 +908,58 @@
   <dimension ref="B2:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2"/>
-    <col min="2" max="2" width="35.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="1" customWidth="1"/>
-    <col min="5" max="19" width="10.6640625" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="35.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
+    <col min="5" max="19" width="10.7109375" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" s="5" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:19" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="2:19" s="5" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:19" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="2:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:19" ht="18" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-    </row>
-    <row r="6" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="2:19" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
@@ -1007,11 +991,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="69" t="s">
+    <row r="8" spans="2:19" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="68" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="29" t="s">
@@ -1035,9 +1019,9 @@
       <c r="R8" s="32"/>
       <c r="S8" s="33"/>
     </row>
-    <row r="9" spans="2:19" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
+    <row r="9" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="30" t="s">
         <v>11</v>
       </c>
@@ -1087,10 +1071,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:19" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="71"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="73"/>
+    <row r="10" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="72"/>
       <c r="E10" s="22">
         <v>45875</v>
       </c>
@@ -1150,11 +1134,11 @@
         <v>45980</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="64" t="s">
+    <row r="11" spans="2:19" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="27" t="s">
@@ -1176,9 +1160,9 @@
       <c r="R11" s="44"/>
       <c r="S11" s="45"/>
     </row>
-    <row r="12" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="65"/>
-      <c r="C12" s="67"/>
+    <row r="12" spans="2:19" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="64"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="28" t="s">
         <v>14</v>
       </c>
@@ -1198,11 +1182,11 @@
       <c r="R12" s="44"/>
       <c r="S12" s="45"/>
     </row>
-    <row r="13" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B13" s="64" t="s">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="27" t="s">
@@ -1224,9 +1208,9 @@
       <c r="R13" s="44"/>
       <c r="S13" s="45"/>
     </row>
-    <row r="14" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="65"/>
-      <c r="C14" s="67"/>
+    <row r="14" spans="2:19" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="64"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="28" t="s">
         <v>14</v>
       </c>
@@ -1246,11 +1230,11 @@
       <c r="R14" s="44"/>
       <c r="S14" s="45"/>
     </row>
-    <row r="15" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="66" t="s">
+    <row r="15" spans="2:19" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="65" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="27" t="s">
@@ -1272,18 +1256,18 @@
       <c r="R15" s="44"/>
       <c r="S15" s="45"/>
     </row>
-    <row r="16" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
+    <row r="16" spans="2:19" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="60"/>
+      <c r="E16" s="59"/>
       <c r="F16" s="41"/>
       <c r="G16" s="41"/>
       <c r="H16" s="48"/>
       <c r="I16" s="48"/>
-      <c r="J16" s="61"/>
+      <c r="J16" s="60"/>
       <c r="K16" s="43"/>
       <c r="L16" s="44"/>
       <c r="M16" s="45"/>
@@ -1294,11 +1278,11 @@
       <c r="R16" s="44"/>
       <c r="S16" s="45"/>
     </row>
-    <row r="17" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="66" t="s">
+    <row r="17" spans="2:19" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="65" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="27" t="s">
@@ -1320,9 +1304,9 @@
       <c r="R17" s="44"/>
       <c r="S17" s="45"/>
     </row>
-    <row r="18" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
+    <row r="18" spans="2:19" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="28" t="s">
         <v>14</v>
       </c>
@@ -1342,11 +1326,11 @@
       <c r="R18" s="44"/>
       <c r="S18" s="45"/>
     </row>
-    <row r="19" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B19" s="66" t="s">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="27" t="s">
@@ -1368,9 +1352,9 @@
       <c r="R19" s="44"/>
       <c r="S19" s="45"/>
     </row>
-    <row r="20" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
+    <row r="20" spans="2:19" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
       <c r="D20" s="28" t="s">
         <v>14</v>
       </c>
@@ -1379,7 +1363,7 @@
       <c r="G20" s="41"/>
       <c r="H20" s="51"/>
       <c r="I20" s="51"/>
-      <c r="J20" s="61"/>
+      <c r="J20" s="60"/>
       <c r="K20" s="43"/>
       <c r="L20" s="53"/>
       <c r="M20" s="45"/>
@@ -1390,11 +1374,11 @@
       <c r="R20" s="44"/>
       <c r="S20" s="45"/>
     </row>
-    <row r="21" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B21" s="66" t="s">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="65" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="27" t="s">
@@ -1416,9 +1400,9 @@
       <c r="R21" s="44"/>
       <c r="S21" s="45"/>
     </row>
-    <row r="22" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
+    <row r="22" spans="2:19" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
       <c r="D22" s="28" t="s">
         <v>14</v>
       </c>
@@ -1428,7 +1412,7 @@
       <c r="H22" s="51"/>
       <c r="I22" s="51"/>
       <c r="J22" s="52"/>
-      <c r="K22" s="74"/>
+      <c r="K22" s="62"/>
       <c r="L22" s="53"/>
       <c r="M22" s="45"/>
       <c r="N22" s="41"/>
@@ -1438,11 +1422,11 @@
       <c r="R22" s="44"/>
       <c r="S22" s="45"/>
     </row>
-    <row r="23" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="66" t="s">
+    <row r="23" spans="2:19" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="65" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="27" t="s">
@@ -1464,9 +1448,9 @@
       <c r="R23" s="44"/>
       <c r="S23" s="45"/>
     </row>
-    <row r="24" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
+    <row r="24" spans="2:19" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
       <c r="D24" s="28" t="s">
         <v>14</v>
       </c>
@@ -1476,7 +1460,7 @@
       <c r="H24" s="51"/>
       <c r="I24" s="51"/>
       <c r="J24" s="43"/>
-      <c r="K24" s="61"/>
+      <c r="K24" s="60"/>
       <c r="L24" s="44"/>
       <c r="M24" s="45"/>
       <c r="N24" s="41"/>
@@ -1486,11 +1470,11 @@
       <c r="R24" s="44"/>
       <c r="S24" s="45"/>
     </row>
-    <row r="25" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="64" t="s">
+    <row r="25" spans="2:19" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="63" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="27" t="s">
@@ -1504,7 +1488,7 @@
       <c r="J25" s="51"/>
       <c r="K25" s="52"/>
       <c r="L25" s="50"/>
-      <c r="M25" s="56"/>
+      <c r="M25" s="55"/>
       <c r="N25" s="42"/>
       <c r="O25" s="51"/>
       <c r="P25" s="46"/>
@@ -1512,9 +1496,9 @@
       <c r="R25" s="44"/>
       <c r="S25" s="45"/>
     </row>
-    <row r="26" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
+    <row r="26" spans="2:19" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="28" t="s">
         <v>14</v>
       </c>
@@ -1525,20 +1509,20 @@
       <c r="I26" s="51"/>
       <c r="J26" s="51"/>
       <c r="K26" s="52"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="51"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
       <c r="O26" s="51"/>
       <c r="P26" s="46"/>
       <c r="Q26" s="47"/>
       <c r="R26" s="44"/>
       <c r="S26" s="45"/>
     </row>
-    <row r="27" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B27" s="64" t="s">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="63" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="27" t="s">
@@ -1555,38 +1539,38 @@
       <c r="M27" s="54"/>
       <c r="N27" s="42"/>
       <c r="O27" s="42"/>
-      <c r="P27" s="57"/>
+      <c r="P27" s="56"/>
       <c r="Q27" s="47"/>
       <c r="R27" s="44"/>
       <c r="S27" s="45"/>
     </row>
-    <row r="28" spans="2:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
+    <row r="28" spans="2:19" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
       <c r="D28" s="28" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="41"/>
       <c r="F28" s="41"/>
       <c r="G28" s="41"/>
-      <c r="H28" s="62"/>
+      <c r="H28" s="61"/>
       <c r="I28" s="48"/>
       <c r="J28" s="48"/>
-      <c r="K28" s="63"/>
+      <c r="K28" s="60"/>
       <c r="L28" s="53"/>
       <c r="M28" s="54"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="46"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="60"/>
+      <c r="P28" s="60"/>
       <c r="Q28" s="47"/>
       <c r="R28" s="44"/>
       <c r="S28" s="45"/>
     </row>
-    <row r="29" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B29" s="64" t="s">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="63" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="27" t="s">
@@ -1603,14 +1587,14 @@
       <c r="M29" s="51"/>
       <c r="N29" s="42"/>
       <c r="O29" s="42"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="58"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="57"/>
       <c r="R29" s="53"/>
       <c r="S29" s="45"/>
     </row>
-    <row r="30" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
+    <row r="30" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="28" t="s">
         <v>14</v>
       </c>
@@ -1623,18 +1607,18 @@
       <c r="K30" s="51"/>
       <c r="L30" s="53"/>
       <c r="M30" s="54"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="47"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="60"/>
       <c r="R30" s="44"/>
       <c r="S30" s="45"/>
     </row>
-    <row r="31" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="64" t="s">
+    <row r="31" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="27" t="s">
@@ -1646,7 +1630,7 @@
       <c r="H31" s="41"/>
       <c r="I31" s="41"/>
       <c r="J31" s="41"/>
-      <c r="K31" s="59"/>
+      <c r="K31" s="58"/>
       <c r="L31" s="44"/>
       <c r="M31" s="45"/>
       <c r="N31" s="41"/>
@@ -1656,9 +1640,9 @@
       <c r="R31" s="42"/>
       <c r="S31" s="45"/>
     </row>
-    <row r="32" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="65"/>
-      <c r="C32" s="67"/>
+    <row r="32" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="64"/>
+      <c r="C32" s="66"/>
       <c r="D32" s="28" t="s">
         <v>14</v>
       </c>
@@ -1675,24 +1659,13 @@
       <c r="O32" s="41"/>
       <c r="P32" s="46"/>
       <c r="Q32" s="47"/>
-      <c r="R32" s="51"/>
+      <c r="R32" s="73"/>
       <c r="S32" s="45"/>
     </row>
-    <row r="34" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="34" x14ac:dyDescent="0.25"/>
+    <row r="35" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D5:M5"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B10:D10"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="B27:B28"/>
@@ -1708,6 +1681,17 @@
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D5:M5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C27:C28"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
